--- a/Entity idea 2.xlsx
+++ b/Entity idea 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinh\Documents\Projects\money-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF927543-9090-44BF-AAA0-C48B0D58E87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268773B8-A02A-4624-B950-50716FE77356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>Giao dịch (Transaction)</t>
   </si>
@@ -57,13 +57,7 @@
     <t>Miêu tả (Description)</t>
   </si>
   <si>
-    <t>Đổ xăng</t>
-  </si>
-  <si>
     <t>VND</t>
-  </si>
-  <si>
-    <t>+ 50,000</t>
   </si>
   <si>
     <t>0124 7659 4653 1897</t>
@@ -239,18 +233,12 @@
     <t>T1</t>
   </si>
   <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
     <t>TD1</t>
   </si>
   <si>
     <t>Giao dịch</t>
   </si>
   <si>
-    <t>Transaction detail ID</t>
-  </si>
-  <si>
     <t>TC1</t>
   </si>
   <si>
@@ -287,14 +275,53 @@
     <t>Gửi A (không contact)</t>
   </si>
   <si>
-    <t>Additional contacts of a transaction detail</t>
+    <t>TransactionDetailAdditionalContacts</t>
+  </si>
+  <si>
+    <t>Chi tiết giao dịch (Transaction details)</t>
+  </si>
+  <si>
+    <t>Hình ảnh giao dịch (Images)</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Transaction Id</t>
+  </si>
+  <si>
+    <t>Transaction detail Id</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Link 1</t>
+  </si>
+  <si>
+    <t>Link 2</t>
+  </si>
+  <si>
+    <t>Đường dẫn (link)</t>
+  </si>
+  <si>
+    <t>Title 1</t>
+  </si>
+  <si>
+    <t>Title 2</t>
+  </si>
+  <si>
+    <t>Có thể không có, mối quan hệ 0… n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,12 +336,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -465,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -479,34 +500,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -526,47 +544,56 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,399 +909,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78541E-D712-4294-A998-0284267A00F9}">
-  <dimension ref="A1:AR46"/>
+  <dimension ref="A1:AY46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="25.5703125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="22" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" customWidth="1"/>
-    <col min="14" max="14" width="38.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="35" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="27.7109375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="26" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="39.28515625" style="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" customWidth="1"/>
+    <col min="13" max="17" width="22" style="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="14" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" customWidth="1"/>
+    <col min="21" max="21" width="38.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="35" style="1" customWidth="1"/>
+    <col min="23" max="23" width="30.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="30.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="27.7109375" style="1" customWidth="1"/>
+    <col min="27" max="28" width="26" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="39.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="2:44" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="20" t="s">
+    <row r="1" spans="2:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="34"/>
+    </row>
+    <row r="3" spans="2:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="32"/>
+      <c r="H3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+    </row>
+    <row r="4" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="I4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="P2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:44" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="S4" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="I7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="28"/>
+    </row>
+    <row r="8" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" s="26"/>
+    </row>
+    <row r="13" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="AC13" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="S14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="15" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V15" s="16">
+        <v>3000</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>22589265</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AC15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="25"/>
+      <c r="AS16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT19" s="29"/>
+      <c r="AW19" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX19" s="28"/>
+    </row>
+    <row r="20" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS20" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="14"/>
+    </row>
+    <row r="22" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="L3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:44" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:44" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="11" spans="2:44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="25"/>
-      <c r="L12" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="2:44" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="V13" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:44" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="L14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:44" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="17">
-        <v>3000</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="R15" s="6">
-        <v>22589265</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" s="6"/>
-      <c r="V15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:44" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="N16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="R16" s="32"/>
-      <c r="S16" s="28"/>
-      <c r="AL16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ16" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="3:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="AL17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="3:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM19" s="22"/>
-      <c r="AP19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ19" s="21"/>
-    </row>
-    <row r="20" spans="3:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL20" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="3:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="15"/>
-    </row>
-    <row r="22" spans="3:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1284,167 +1340,167 @@
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="S23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="V23" s="16">
+        <v>2000</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" s="17">
-        <v>2000</v>
-      </c>
-      <c r="P23" s="6" t="s">
+      <c r="AS23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT23" s="29"/>
+    </row>
+    <row r="24" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS24" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="V34" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W34" s="16">
+        <v>3000</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL23" s="22" t="s">
+      <c r="X38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z38" s="16">
+        <v>4000</v>
+      </c>
+      <c r="AA38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V39" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+    </row>
+    <row r="41" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U41" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+    </row>
+    <row r="45" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AM23" s="22"/>
-    </row>
-    <row r="24" spans="3:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AL24" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="3:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="3:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="P34" s="17">
-        <v>3000</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="3:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="3:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="3:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="3:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N38" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S38" s="17">
-        <v>4000</v>
-      </c>
-      <c r="T38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="U38" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="3:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O39" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-    </row>
-    <row r="41" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N41" s="21" t="s">
+      <c r="D45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-    </row>
-    <row r="45" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="R45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>44807</v>
       </c>
@@ -1452,31 +1508,32 @@
         <v>5000</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="R46" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="P7:Q7"/>
+  <mergeCells count="15">
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="W7:X7"/>
     <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="AW15:AX15"/>
+    <mergeCell ref="AW19:AX19"/>
+    <mergeCell ref="AS23:AT23"/>
+    <mergeCell ref="V39:Y39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1494,24 +1551,24 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="29"/>
+      <c r="A1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Entity idea 2.xlsx
+++ b/Entity idea 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinh\Documents\Projects\money-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltti\Documents\GitHub\money-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268773B8-A02A-4624-B950-50716FE77356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A498A0CF-395F-40A6-A778-B73858F3FB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,9 +275,6 @@
     <t>Gửi A (không contact)</t>
   </si>
   <si>
-    <t>TransactionDetailAdditionalContacts</t>
-  </si>
-  <si>
     <t>Chi tiết giao dịch (Transaction details)</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>Có thể không có, mối quan hệ 0… n</t>
+  </si>
+  <si>
+    <t>Bạn của đối tác trong giao dịch (Contact's friends)</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -550,49 +556,61 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -909,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78541E-D712-4294-A998-0284267A00F9}">
-  <dimension ref="A1:AY46"/>
+  <dimension ref="A1:AU46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -921,75 +939,69 @@
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="25.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="37" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" customWidth="1"/>
-    <col min="13" max="17" width="22" style="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" style="14" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" customWidth="1"/>
-    <col min="21" max="21" width="38.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="35" style="1" customWidth="1"/>
-    <col min="23" max="23" width="30.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="23.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="30.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="27.7109375" style="1" customWidth="1"/>
-    <col min="27" max="28" width="26" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="39.28515625" style="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" customWidth="1"/>
+    <col min="17" max="17" width="38.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="30.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="27.7109375" style="1" customWidth="1"/>
+    <col min="23" max="24" width="26" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="39.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="2:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="34" t="s">
+    </row>
+    <row r="3" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="31"/>
+      <c r="H3" s="38"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="34"/>
-    </row>
-    <row r="3" spans="2:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="32"/>
-      <c r="H3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-    </row>
-    <row r="4" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="I4" s="2" t="s">
+      <c r="E4" s="32"/>
+      <c r="I4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="S4" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>2</v>
@@ -1007,22 +1019,22 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="K5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
@@ -1042,257 +1054,253 @@
         <v>40</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>82</v>
+      <c r="K6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="30" t="s">
+    <row r="7" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="30"/>
       <c r="I7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>83</v>
+      <c r="K7" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7" s="28"/>
-    </row>
-    <row r="8" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="30" t="s">
+    </row>
+    <row r="8" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="37" t="s">
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S12" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="T12" s="26"/>
-    </row>
-    <row r="13" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="AC13" s="19" t="s">
+    <row r="12" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="2"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Y13" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="38"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="O14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="S14" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS14" s="1" t="s">
+      <c r="AO14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="16">
+        <v>3000</v>
+      </c>
       <c r="S15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" s="5">
+        <v>22589265</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="5"/>
+      <c r="Y15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="V15" s="16">
-        <v>3000</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>22589265</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA15" s="5"/>
-      <c r="AC15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS15" s="10" t="s">
+      <c r="AO15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AT15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT15" s="29"/>
       <c r="AU15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX15" s="29"/>
-      <c r="AY15" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U16" s="12" t="s">
+    <row r="16" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="X16" s="23" t="s">
+      <c r="R16" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="S16" s="28"/>
+      <c r="T16" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="25"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
+      <c r="AO16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP16" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="AS16" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AT16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AW16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX16" s="5" t="s">
+    </row>
+    <row r="17" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP17" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AS17" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AT17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AW17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AX17" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AF18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH18" s="3" t="s">
+    </row>
+    <row r="18" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AF19" s="5" t="s">
+    <row r="19" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AG19" s="5" t="s">
+      <c r="AC19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AH19" s="5" t="s">
+      <c r="AD19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AS19" s="29" t="s">
+      <c r="AO19" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AT19" s="29"/>
-      <c r="AW19" s="28" t="s">
+      <c r="AP19" s="29"/>
+      <c r="AS19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AX19" s="28"/>
-    </row>
-    <row r="20" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AH20" s="12" t="s">
+      <c r="AT19" s="27"/>
+    </row>
+    <row r="20" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AS20" s="9" t="s">
+      <c r="AO20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="28" t="s">
+    <row r="21" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="11"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
@@ -1300,37 +1308,33 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
+      <c r="Z21" s="22"/>
       <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="14"/>
-    </row>
-    <row r="22" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="O22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="S22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1340,144 +1344,151 @@
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="O23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="16">
+        <v>2000</v>
+      </c>
       <c r="S23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="U23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP23" s="29"/>
+    </row>
+    <row r="24" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R24" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24" s="28"/>
+      <c r="AO24" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="40"/>
+    </row>
+    <row r="32" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="V23" s="16">
-        <v>2000</v>
-      </c>
-      <c r="W23" s="5" t="s">
+      <c r="R34" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" s="16">
+        <v>3000</v>
+      </c>
+      <c r="T34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Y23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS23" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT23" s="29"/>
-    </row>
-    <row r="24" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AS24" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="3:50" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U33" s="3" t="s">
+    </row>
+    <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W33" s="3" t="s">
+      <c r="R37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="X33" s="3" t="s">
+      <c r="W37" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="V34" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="W34" s="16">
-        <v>3000</v>
-      </c>
-      <c r="X34" s="5" t="s">
+      <c r="X37" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38" s="16">
+        <v>4000</v>
+      </c>
+      <c r="W38" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U35" s="12" t="s">
+      <c r="X38" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="12" t="s">
+      <c r="R39" s="28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB37" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z38" s="16">
-        <v>4000</v>
-      </c>
-      <c r="AA38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB38" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="3:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U39" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="V39" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-    </row>
-    <row r="41" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U41" s="28" t="s">
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+    </row>
+    <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-    </row>
-    <row r="45" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+    </row>
+    <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>13</v>
       </c>
@@ -1493,14 +1504,14 @@
       <c r="G45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R45" s="14" t="s">
+      <c r="N45" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>44807</v>
       </c>
@@ -1513,27 +1524,28 @@
       <c r="F46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="14" t="s">
+      <c r="N46" s="14" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="W7:X7"/>
+  <mergeCells count="16">
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="AS15:AT15"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="AO23:AP23"/>
+    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="AO19:AP19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="O3:P4"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="AW15:AX15"/>
-    <mergeCell ref="AW19:AX19"/>
-    <mergeCell ref="AS23:AT23"/>
-    <mergeCell ref="V39:Y39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Entity idea 2.xlsx
+++ b/Entity idea 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltti\Documents\GitHub\money-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A498A0CF-395F-40A6-A778-B73858F3FB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C945AD-1086-4A48-AD4F-F321E332048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>Giao dịch (Transaction)</t>
   </si>
@@ -236,9 +236,6 @@
     <t>TD1</t>
   </si>
   <si>
-    <t>Giao dịch</t>
-  </si>
-  <si>
     <t>TC1</t>
   </si>
   <si>
@@ -269,18 +266,12 @@
     <t>(Tổng của chi tiết giao dịch)</t>
   </si>
   <si>
-    <t>Chi tiết giao dịch (Transaction detail)</t>
-  </si>
-  <si>
     <t>Gửi A (không contact)</t>
   </si>
   <si>
     <t>Chi tiết giao dịch (Transaction details)</t>
   </si>
   <si>
-    <t>Hình ảnh giao dịch (Images)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -314,14 +305,17 @@
     <t>Có thể không có, mối quan hệ 0… n</t>
   </si>
   <si>
-    <t>Bạn của đối tác trong giao dịch (Contact's friends)</t>
+    <t>Hình ảnh giao dịch (Transaction images)</t>
+  </si>
+  <si>
+    <t>Giao dịch (Transactions)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,8 +361,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEDE2F6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,12 +402,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFEDE2F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFECB7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -456,15 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -492,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -577,41 +581,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,6 +626,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFECB7"/>
+      <color rgb="FFEDE2F6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -929,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78541E-D712-4294-A998-0284267A00F9}">
   <dimension ref="A1:AU46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -939,13 +952,13 @@
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="40" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="1" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="14" customWidth="1"/>
@@ -966,20 +979,14 @@
         <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="3" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="31"/>
-      <c r="H3" s="38"/>
+      <c r="H3" s="41"/>
       <c r="M3" s="2"/>
       <c r="O3" s="26" t="s">
         <v>69</v>
@@ -988,11 +995,11 @@
     </row>
     <row r="4" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="32"/>
+        <v>82</v>
+      </c>
+      <c r="D4" s="19"/>
       <c r="I4" s="19" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
@@ -1001,7 +1008,7 @@
     </row>
     <row r="5" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>2</v>
@@ -1019,18 +1026,45 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1054,138 +1088,124 @@
         <v>40</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K6" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>78</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="O6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="16">
+        <v>3000</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="36">
+        <v>22589265</v>
+      </c>
+      <c r="V6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="30"/>
       <c r="I7" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>82</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="Q7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="28"/>
+      <c r="T7" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" s="31"/>
+      <c r="V7" s="32"/>
     </row>
     <row r="8" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="41"/>
+      <c r="E8" s="39" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="39"/>
       <c r="I9" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O12" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="26"/>
+    <row r="10" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="39"/>
+    </row>
+    <row r="11" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="38"/>
     </row>
     <row r="13" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
       <c r="Y13" s="19" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="38"/>
+      <c r="H14" s="41"/>
       <c r="M14" s="2"/>
-      <c r="O14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y14" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AO14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" s="16">
-        <v>3000</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="U15" s="5">
-        <v>22589265</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="5"/>
+      <c r="Q15" s="34"/>
       <c r="Y15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z15" s="5" t="s">
         <v>57</v>
@@ -1206,18 +1226,6 @@
       </c>
     </row>
     <row r="16" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="S16" s="28"/>
-      <c r="T16" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
       <c r="AO16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1247,10 +1255,10 @@
     </row>
     <row r="18" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB18" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AD18" s="3" t="s">
         <v>8</v>
@@ -1258,13 +1266,13 @@
     </row>
     <row r="19" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC19" s="5" t="s">
         <v>57</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AO19" s="29" t="s">
         <v>11</v>
@@ -1277,7 +1285,7 @@
     </row>
     <row r="20" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AD20" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AO20" s="9" t="s">
         <v>28</v>
@@ -1291,7 +1299,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="39"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -1319,7 +1327,7 @@
         <v>55</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>39</v>
@@ -1345,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>56</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R23" s="16">
         <v>2000</v>
@@ -1360,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AO23" s="29" t="s">
         <v>11</v>
@@ -1369,7 +1377,7 @@
     </row>
     <row r="24" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R24" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S24" s="28"/>
       <c r="AO24" s="9" t="s">
@@ -1377,7 +1385,7 @@
       </c>
     </row>
     <row r="26" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S26" s="40"/>
+      <c r="S26" s="33"/>
     </row>
     <row r="32" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1396,7 +1404,7 @@
     </row>
     <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q34" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R34" s="15" t="s">
         <v>22</v>
@@ -1529,23 +1537,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="14">
     <mergeCell ref="Q41:T41"/>
     <mergeCell ref="AS15:AT15"/>
     <mergeCell ref="AS19:AT19"/>
     <mergeCell ref="AO23:AP23"/>
     <mergeCell ref="R39:U39"/>
-    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R7:S7"/>
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="AO19:AP19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="T7:V7"/>
     <mergeCell ref="O3:P4"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1580,7 +1586,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Entity idea 2.xlsx
+++ b/Entity idea 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltti\Documents\GitHub\money-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinh\Documents\Projects\money-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C945AD-1086-4A48-AD4F-F321E332048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6876D7-38DF-4F3D-B338-CA78B92D81F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="90">
   <si>
     <t>Giao dịch (Transaction)</t>
   </si>
@@ -309,6 +309,27 @@
   </si>
   <si>
     <t>Giao dịch (Transactions)</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Tiền mặt (Cash)</t>
+  </si>
+  <si>
+    <t>Chuyển khoản ví điện tử  (E-wallet payment)</t>
+  </si>
+  <si>
+    <t>Tên ví điện tử (E-wallet name)</t>
   </si>
 </sst>
 </file>
@@ -369,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,7 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFECB7"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED853F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -569,47 +596,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -619,6 +640,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,8 +661,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEDE2F6"/>
+      <color rgb="FFED853F"/>
       <color rgb="FFFFECB7"/>
-      <color rgb="FFEDE2F6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -942,56 +976,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78541E-D712-4294-A998-0284267A00F9}">
   <dimension ref="A1:AU46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="40" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="38" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="14" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="44" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="17" width="38.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="42.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="19" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="30.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="27.7109375" style="1" customWidth="1"/>
-    <col min="23" max="24" width="26" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="39.28515625" style="1"/>
+    <col min="22" max="22" width="30" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26" style="1" customWidth="1"/>
+    <col min="25" max="26" width="39.28515625" style="1"/>
+    <col min="27" max="27" width="24" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="39.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="9" t="s">
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="41"/>
+      <c r="H3" s="39"/>
       <c r="M3" s="2"/>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="26"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
@@ -1003,8 +1042,11 @@
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Y4" s="19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -1055,17 +1097,26 @@
       <c r="S5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="V5" s="28" t="s">
         <v>38</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1117,23 +1168,34 @@
       <c r="S6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="36">
+      <c r="U6" s="29">
         <v>22589265</v>
       </c>
-      <c r="V6" s="36" t="s">
+      <c r="V6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="5"/>
+      <c r="W6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA6" s="29" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="34" t="s">
         <v>67</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -1151,65 +1213,132 @@
       <c r="M7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="R7" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="30" t="s">
+      <c r="S7" s="36"/>
+      <c r="T7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="31"/>
-      <c r="V7" s="32"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="43"/>
+      <c r="Y7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" s="29" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="34"/>
+      <c r="AA8" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="39"/>
       <c r="I9" s="25" t="s">
         <v>28</v>
       </c>
+      <c r="AA9" s="34"/>
     </row>
     <row r="10" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="39"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34"/>
+      <c r="O11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F12" s="36"/>
+      <c r="O12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="16">
+        <v>2000</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA12" s="29" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y13" s="19" t="s">
-        <v>10</v>
+      <c r="R13" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="41"/>
+      <c r="T13" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" s="34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="41"/>
+      <c r="H14" s="39"/>
       <c r="M14" s="2"/>
-      <c r="Y14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="T14" s="34"/>
+      <c r="AA14" s="34"/>
       <c r="AO14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q15" s="34"/>
-      <c r="Y15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="Q15" s="27"/>
       <c r="AO15" s="10" t="s">
         <v>36</v>
       </c>
@@ -1217,15 +1346,42 @@
       <c r="AQ15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AS15" s="29" t="s">
+      <c r="AS15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AT15" s="29"/>
+      <c r="AT15" s="32"/>
       <c r="AU15" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="AO16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1240,6 +1396,33 @@
       </c>
     </row>
     <row r="17" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R17" s="16">
+        <v>1000</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="U17" s="29">
+        <v>22589265</v>
+      </c>
+      <c r="V17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="AO17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1254,6 +1437,11 @@
       </c>
     </row>
     <row r="18" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T18" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" s="42"/>
+      <c r="V18" s="43"/>
       <c r="AB18" s="3" t="s">
         <v>70</v>
       </c>
@@ -1274,14 +1462,14 @@
       <c r="AD19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AO19" s="29" t="s">
+      <c r="AO19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AP19" s="29"/>
-      <c r="AS19" s="27" t="s">
+      <c r="AP19" s="32"/>
+      <c r="AS19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AT19" s="27"/>
+      <c r="AT19" s="31"/>
     </row>
     <row r="20" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AD20" s="12" t="s">
@@ -1292,14 +1480,14 @@
       </c>
     </row>
     <row r="21" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="42"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -1323,21 +1511,6 @@
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1352,40 +1525,21 @@
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R23" s="16">
-        <v>2000</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="U23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AO23" s="29" t="s">
+      <c r="AO23" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AP23" s="29"/>
-    </row>
-    <row r="24" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R24" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="S24" s="28"/>
+      <c r="AP23" s="32"/>
+    </row>
+    <row r="24" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AO24" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S26" s="33"/>
+      <c r="S26" s="26"/>
     </row>
     <row r="32" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1481,20 +1635,20 @@
       <c r="Q39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="R39" s="28" t="s">
+      <c r="R39" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
     </row>
     <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q41" s="27" t="s">
+      <c r="Q41" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
     </row>
     <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
@@ -1512,7 +1666,7 @@
       <c r="G45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N45" s="14" t="s">
+      <c r="N45" s="44" t="s">
         <v>15</v>
       </c>
       <c r="Q45" s="1" t="s">
@@ -1532,26 +1686,31 @@
       <c r="F46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="14" t="s">
+      <c r="N46" s="44" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="AO19:AP19"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="T18:V18"/>
     <mergeCell ref="Q41:T41"/>
     <mergeCell ref="AS15:AT15"/>
     <mergeCell ref="AS19:AT19"/>
     <mergeCell ref="AO23:AP23"/>
     <mergeCell ref="R39:U39"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="AO19:AP19"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Entity idea 2.xlsx
+++ b/Entity idea 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinh\Documents\Projects\money-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6876D7-38DF-4F3D-B338-CA78B92D81F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0398ACEB-3C1D-4B65-BC4A-0688EF2A3E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>Giao dịch (Transaction)</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Tiền mặt (Cash payment)</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>(tham chiếu đến contact)</t>
   </si>
   <si>
@@ -330,6 +327,21 @@
   </si>
   <si>
     <t>Tên ví điện tử (E-wallet name)</t>
+  </si>
+  <si>
+    <t>Delilah</t>
+  </si>
+  <si>
+    <t>Merrill</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>ZaloPay</t>
+  </si>
+  <si>
+    <t>Bạn của contact trong 1 giao dịch (Friends of contact in a transaction detail - TransactionDetailContactFriends)</t>
   </si>
 </sst>
 </file>
@@ -523,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -611,46 +623,49 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -976,26 +991,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78541E-D712-4294-A998-0284267A00F9}">
   <dimension ref="A1:AU46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="31" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="44" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="34" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" customWidth="1"/>
     <col min="17" max="17" width="42.28515625" style="1" customWidth="1"/>
@@ -1016,7 +1031,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1025,32 +1040,34 @@
       </c>
     </row>
     <row r="3" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="39"/>
+      <c r="H3" s="32"/>
       <c r="M3" s="2"/>
       <c r="O3" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P3" s="35"/>
     </row>
     <row r="4" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="19"/>
       <c r="I4" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
       <c r="O4" s="35"/>
       <c r="P4" s="35"/>
       <c r="Y4" s="19" t="s">
-        <v>10</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>2</v>
@@ -1068,13 +1085,13 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="K5" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>36</v>
@@ -1086,7 +1103,7 @@
         <v>55</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>39</v>
@@ -1110,10 +1127,10 @@
         <v>5</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA5" s="28" t="s">
         <v>8</v>
@@ -1139,16 +1156,16 @@
         <v>40</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>31</v>
@@ -1169,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="T6" s="29" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="U6" s="29">
         <v>22589265</v>
@@ -1187,28 +1204,28 @@
         <v>57</v>
       </c>
       <c r="AA6" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>31</v>
@@ -1216,11 +1233,11 @@
       <c r="Q7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="36"/>
-      <c r="T7" s="37" t="s">
+      <c r="R7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38" t="s">
         <v>46</v>
       </c>
       <c r="U7" s="42"/>
@@ -1232,34 +1249,34 @@
         <v>57</v>
       </c>
       <c r="AA7" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="34"/>
-      <c r="AA8" s="34" t="s">
+      <c r="E8" s="39"/>
+      <c r="AA8" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="39" t="s">
         <v>42</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="34"/>
+      <c r="AA9" s="39"/>
     </row>
     <row r="10" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="34"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="34"/>
+      <c r="E11" s="39"/>
       <c r="O11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>39</v>
@@ -1274,28 +1291,28 @@
         <v>8</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA11" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="36"/>
+      <c r="E12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="37"/>
       <c r="O12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R12" s="16">
         <v>2000</v>
@@ -1304,35 +1321,35 @@
         <v>6</v>
       </c>
       <c r="T12" s="29" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z12" s="5" t="s">
         <v>57</v>
       </c>
       <c r="AA12" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R13" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13" s="41"/>
-      <c r="T13" s="34" t="s">
+      <c r="R13" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="40"/>
+      <c r="T13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AA13" s="34" t="s">
+      <c r="AA13" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="39"/>
+      <c r="H14" s="32"/>
       <c r="M14" s="2"/>
-      <c r="T14" s="34"/>
-      <c r="AA14" s="34"/>
+      <c r="T14" s="39"/>
+      <c r="AA14" s="39"/>
       <c r="AO14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1346,10 +1363,10 @@
       <c r="AQ15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AS15" s="32" t="s">
+      <c r="AS15" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AT15" s="32"/>
+      <c r="AT15" s="41"/>
       <c r="AU15" s="8" t="s">
         <v>32</v>
       </c>
@@ -1359,7 +1376,7 @@
         <v>55</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>39</v>
@@ -1377,11 +1394,14 @@
         <v>37</v>
       </c>
       <c r="V16" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="Y16" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="AO16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1397,13 +1417,13 @@
     </row>
     <row r="17" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R17" s="16">
         <v>1000</v>
@@ -1412,13 +1432,13 @@
         <v>6</v>
       </c>
       <c r="T17" s="29" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="U17" s="29">
-        <v>22589265</v>
+        <v>522354258</v>
       </c>
       <c r="V17" s="29" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="W17" s="5" t="s">
         <v>31</v>
@@ -1437,16 +1457,16 @@
       </c>
     </row>
     <row r="18" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T18" s="37" t="s">
+      <c r="T18" s="38" t="s">
         <v>46</v>
       </c>
       <c r="U18" s="42"/>
       <c r="V18" s="43"/>
       <c r="AB18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD18" s="3" t="s">
         <v>8</v>
@@ -1460,34 +1480,34 @@
         <v>57</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AP19" s="32"/>
-      <c r="AS19" s="31" t="s">
+      <c r="AP19" s="41"/>
+      <c r="AS19" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AT19" s="31"/>
+      <c r="AT19" s="36"/>
     </row>
     <row r="20" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AD20" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="40"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -1526,12 +1546,12 @@
         <v>0</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO23" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO23" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AP23" s="32"/>
+      <c r="AP23" s="41"/>
     </row>
     <row r="24" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AO24" s="9" t="s">
@@ -1635,20 +1655,20 @@
       <c r="Q39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="R39" s="33" t="s">
+      <c r="R39" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
     </row>
     <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q41" s="31" t="s">
+      <c r="Q41" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
     </row>
     <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
@@ -1666,7 +1686,7 @@
       <c r="G45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N45" s="44" t="s">
+      <c r="N45" s="34" t="s">
         <v>15</v>
       </c>
       <c r="Q45" s="1" t="s">
@@ -1686,17 +1706,17 @@
       <c r="F46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="44" t="s">
+      <c r="N46" s="34" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="AS15:AT15"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="AO23:AP23"/>
+    <mergeCell ref="R39:U39"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="AO19:AP19"/>
@@ -1706,11 +1726,11 @@
     <mergeCell ref="T13:T14"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="T18:V18"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="AS15:AT15"/>
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="AO23:AP23"/>
-    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1745,7 +1765,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Entity idea 2.xlsx
+++ b/Entity idea 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinh\Documents\Projects\money-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0398ACEB-3C1D-4B65-BC4A-0688EF2A3E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C0AB41-8686-4F7A-904B-586FB510E3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="104">
   <si>
     <t>Giao dịch (Transaction)</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Lê Bảo Nam</t>
   </si>
   <si>
-    <t>- 10,000 (sum)</t>
-  </si>
-  <si>
     <t>Bản Việt</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Thúy Linh</t>
   </si>
   <si>
-    <t>(enum)</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -157,9 +151,6 @@
   </si>
   <si>
     <t>Phương thức (Transaction method)</t>
-  </si>
-  <si>
-    <t>Bao mi, bul ăn sáng</t>
   </si>
   <si>
     <t>Số tiền (Amount)</t>
@@ -212,9 +203,6 @@
     <t>trả góp</t>
   </si>
   <si>
-    <t>Chuyển khoản ngân hàng (Bank transfer)</t>
-  </si>
-  <si>
     <t>Chuyển khoản gián tiếp</t>
   </si>
   <si>
@@ -227,9 +215,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -263,9 +248,6 @@
     <t>(Tổng của chi tiết giao dịch)</t>
   </si>
   <si>
-    <t>Gửi A (không contact)</t>
-  </si>
-  <si>
     <t>Chi tiết giao dịch (Transaction details)</t>
   </si>
   <si>
@@ -290,9 +272,6 @@
     <t>Link 2</t>
   </si>
   <si>
-    <t>Đường dẫn (link)</t>
-  </si>
-  <si>
     <t>Title 1</t>
   </si>
   <si>
@@ -302,12 +281,6 @@
     <t>Có thể không có, mối quan hệ 0… n</t>
   </si>
   <si>
-    <t>Hình ảnh giao dịch (Transaction images)</t>
-  </si>
-  <si>
-    <t>Giao dịch (Transactions)</t>
-  </si>
-  <si>
     <t>Lorenzo</t>
   </si>
   <si>
@@ -320,12 +293,6 @@
     <t>Jessica</t>
   </si>
   <si>
-    <t>Tiền mặt (Cash)</t>
-  </si>
-  <si>
-    <t>Chuyển khoản ví điện tử  (E-wallet payment)</t>
-  </si>
-  <si>
     <t>Tên ví điện tử (E-wallet name)</t>
   </si>
   <si>
@@ -342,6 +309,83 @@
   </si>
   <si>
     <t>Bạn của contact trong 1 giao dịch (Friends of contact in a transaction detail - TransactionDetailContactFriends)</t>
+  </si>
+  <si>
+    <t>(Lưu cứng từ contact hoặc nhập tay)</t>
+  </si>
+  <si>
+    <t>Chi tiết giao dịch Id
+(Transaction detail Id)</t>
+  </si>
+  <si>
+    <t>Phương thức
+(Transaction method)</t>
+  </si>
+  <si>
+    <t>Ngày
+(Date)</t>
+  </si>
+  <si>
+    <t>Giờ
+(Time)</t>
+  </si>
+  <si>
+    <t>Giao dịch
+(Transaction)</t>
+  </si>
+  <si>
+    <t>- 10,000,000</t>
+  </si>
+  <si>
+    <t>Tiền tệ
+(Currency)</t>
+  </si>
+  <si>
+    <t>Miêu tả
+(Description)</t>
+  </si>
+  <si>
+    <t>asdiojsao</t>
+  </si>
+  <si>
+    <t>Giao dịch Id
+(Transaction Id)</t>
+  </si>
+  <si>
+    <t>Đường dẫn
+(Link)</t>
+  </si>
+  <si>
+    <t>Tiêu đề
+(Title)</t>
+  </si>
+  <si>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>Hình ảnh giao dịch
+(Transaction images)</t>
+  </si>
+  <si>
+    <t>Giao dịch
+(Transactions)</t>
+  </si>
+  <si>
+    <t>Chuyển khoản ví điện tử
+(E-wallet transfer)</t>
+  </si>
+  <si>
+    <t>Chuyển khoản ngân hàng gián tiếp
+(Indirect bank transfer)</t>
+  </si>
+  <si>
+    <t>(Chuyển khoản ngân hàng (Bank transfer))</t>
+  </si>
+  <si>
+    <t>Chuyển tiền mặt (Cash transfer)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,12 +462,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -531,11 +569,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -576,32 +623,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -614,58 +649,82 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -989,37 +1048,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78541E-D712-4294-A998-0284267A00F9}">
-  <dimension ref="A1:AU46"/>
+  <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="29" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="26" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="29" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="17" width="42.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="33.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" style="1" customWidth="1"/>
     <col min="19" max="19" width="19" style="1" customWidth="1"/>
     <col min="20" max="20" width="23.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="30.5703125" style="1" customWidth="1"/>
     <col min="22" max="22" width="30" style="1" customWidth="1"/>
-    <col min="23" max="23" width="22.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="26" style="1" customWidth="1"/>
     <col min="25" max="26" width="39.28515625" style="1"/>
     <col min="27" max="27" width="24" style="1" customWidth="1"/>
@@ -1028,549 +1087,607 @@
   <sheetData>
     <row r="1" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="32"/>
-      <c r="M3" s="2"/>
-      <c r="O3" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="31"/>
+    </row>
+    <row r="5" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Y5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+    </row>
+    <row r="6" spans="2:47" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:47" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="35"/>
-    </row>
-    <row r="4" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="I4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Y4" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-    </row>
-    <row r="5" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="L7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>3000</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="25">
+        <v>22589265</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="3" t="s">
+      <c r="L8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>3000</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" s="25">
+        <v>22589265</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z8" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="35"/>
+      <c r="O9" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="37"/>
+      <c r="V9" s="38"/>
+      <c r="AA9" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="28" t="s">
+      <c r="I10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA10" s="35"/>
+    </row>
+    <row r="11" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="35"/>
+      <c r="O11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA5" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="16">
-        <v>3000</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="U6" s="29">
-        <v>22589265</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA6" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="U7" s="42"/>
-      <c r="V7" s="43"/>
-      <c r="Y7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA7" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="39"/>
-      <c r="AA8" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="39"/>
-    </row>
-    <row r="10" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="39"/>
-    </row>
-    <row r="11" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="39"/>
-      <c r="O11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="28" t="s">
+      <c r="T11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA11" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="37"/>
+    </row>
+    <row r="12" spans="2:47" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="35"/>
       <c r="O12" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12" s="16">
+        <v>103</v>
+      </c>
+      <c r="R12" s="15">
         <v>2000</v>
       </c>
       <c r="S12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA12" s="29" t="s">
-        <v>85</v>
+      <c r="T12" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R13" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="S13" s="40"/>
-      <c r="T13" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA13" s="39" t="s">
-        <v>46</v>
+      <c r="E13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="R13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="33"/>
+      <c r="T13" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13" s="25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="32"/>
-      <c r="M14" s="2"/>
-      <c r="T14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AO14" s="1" t="s">
+      <c r="T14" s="35"/>
+      <c r="AA14" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="27"/>
+      <c r="M15" s="2"/>
+      <c r="Q15" s="23"/>
+      <c r="AA15" s="35"/>
+      <c r="AO15" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q15" s="27"/>
-      <c r="AO15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS15" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O16" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>39</v>
+        <v>64</v>
+      </c>
+      <c r="Q16" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T16" s="28" t="s">
+      <c r="T16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="V16" s="28" t="s">
-        <v>88</v>
+      <c r="U16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO16" s="5" t="s">
+      <c r="AO16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AP16" s="5" t="s">
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AS16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS16" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:46" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O17" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="R17" s="16">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="15">
         <v>1000</v>
       </c>
       <c r="S17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T17" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="U17" s="29">
+      <c r="T17" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" s="25">
         <v>522354258</v>
       </c>
-      <c r="V17" s="29" t="s">
-        <v>92</v>
+      <c r="V17" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="AO17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:46" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T18" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="U18" s="37"/>
+      <c r="V18" s="38"/>
+      <c r="AO18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT18" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AP17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT17" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T18" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="U18" s="42"/>
-      <c r="V18" s="43"/>
-      <c r="AB18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO19" s="41" t="s">
+      <c r="V20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AP19" s="41"/>
-      <c r="AS19" s="36" t="s">
+      <c r="AP20" s="36"/>
+      <c r="AS20" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AT19" s="36"/>
-    </row>
-    <row r="20" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AD20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO20" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="36" t="s">
+      <c r="AT20" s="32"/>
+    </row>
+    <row r="21" spans="3:46" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" s="25">
+        <v>522354258</v>
+      </c>
+      <c r="V21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO21" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:46" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="14"/>
-    </row>
-    <row r="22" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="24" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO23" s="41" t="s">
+      <c r="AO24" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AP23" s="41"/>
-    </row>
-    <row r="24" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AO24" s="9" t="s">
-        <v>28</v>
+      <c r="AP24" s="36"/>
+    </row>
+    <row r="25" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO25" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S26" s="26"/>
+      <c r="S26" s="22"/>
     </row>
     <row r="32" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>9</v>
@@ -1578,12 +1695,12 @@
     </row>
     <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R34" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="R34" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="16">
+      <c r="S34" s="15">
         <v>3000</v>
       </c>
       <c r="T34" s="5" t="s">
@@ -1592,145 +1709,149 @@
     </row>
     <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q35" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R35" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q37" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V37" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="X37" s="3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q38" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="V38" s="16">
+        <v>44</v>
+      </c>
+      <c r="V38" s="15">
         <v>4000</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="X38" s="5" t="s">
-        <v>54</v>
+      <c r="X38" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q39" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R39" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
+        <v>24</v>
+      </c>
+      <c r="R39" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="X39" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q41" s="36" t="s">
+      <c r="Q41" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
     </row>
     <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N45" s="34" t="s">
-        <v>15</v>
-      </c>
       <c r="Q45" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="1">
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
         <v>44807</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D47" s="1">
         <v>5000</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="34" t="s">
+      <c r="N47" s="29" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="AS15:AT15"/>
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="AO23:AP23"/>
+    <mergeCell ref="AS16:AT16"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="AO24:AP24"/>
     <mergeCell ref="R39:U39"/>
-    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R9:S9"/>
     <mergeCell ref="R13:S13"/>
-    <mergeCell ref="AO19:AP19"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AO20:AP20"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="T13:T14"/>
-    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="T18:V18"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="C4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1748,24 +1869,24 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="20"/>
+      <c r="A1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Entity idea 2.xlsx
+++ b/Entity idea 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinh\Documents\Projects\money-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C0AB41-8686-4F7A-904B-586FB510E3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764D828-786C-47A7-B2F9-B984F470B9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
   <si>
     <t>Giao dịch (Transaction)</t>
   </si>
@@ -239,9 +239,6 @@
     <t>C2</t>
   </si>
   <si>
-    <t>TD2</t>
-  </si>
-  <si>
     <t>(Gộp columns trên UI)</t>
   </si>
   <si>
@@ -386,6 +383,34 @@
   </si>
   <si>
     <t>Chuyển tiền mặt (Cash transfer)</t>
+  </si>
+  <si>
+    <t>Số tiền
+(Amount)</t>
+  </si>
+  <si>
+    <t>Tên đầy đủ 
+(Full name)</t>
+  </si>
+  <si>
+    <t>SCB</t>
+  </si>
+  <si>
+    <t>Số tài khoản
+(Account number)</t>
+  </si>
+  <si>
+    <t>Tên ngân hàng
+(Bank name)</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>BT2</t>
+  </si>
+  <si>
+    <t>CT1</t>
   </si>
 </sst>
 </file>
@@ -582,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -670,22 +695,55 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,36 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78541E-D712-4294-A998-0284267A00F9}">
-  <dimension ref="A1:AU47"/>
+  <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1118,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1099,103 +1127,103 @@
       </c>
     </row>
     <row r="4" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="31"/>
+      <c r="C4" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="37"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="45"/>
+      <c r="I4" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="43"/>
       <c r="M4" s="2"/>
-      <c r="O4" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="31"/>
+      <c r="O4" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="37"/>
     </row>
     <row r="5" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
       <c r="Y5" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z5" s="30"/>
       <c r="AA5" s="30"/>
     </row>
     <row r="6" spans="2:47" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>36</v>
+      <c r="Q6" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z6" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:47" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1206,31 +1234,31 @@
         <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>51</v>
@@ -1242,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T7" s="25">
         <v>22589265</v>
@@ -1260,34 +1288,34 @@
         <v>52</v>
       </c>
       <c r="Z7" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="35" t="s">
-        <v>61</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>51</v>
@@ -1299,13 +1327,13 @@
         <v>6</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T8" s="25">
-        <v>22589265</v>
+        <v>65465465</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>29</v>
@@ -1317,154 +1345,126 @@
         <v>52</v>
       </c>
       <c r="Z8" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="35"/>
-      <c r="O9" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="38"/>
-      <c r="AA9" s="35" t="s">
-        <v>83</v>
+      <c r="E9" s="42"/>
+      <c r="Q9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="41"/>
+      <c r="S9" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" s="48"/>
+      <c r="U9" s="49"/>
+      <c r="Z9" s="42" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="42" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AA10" s="35"/>
+      <c r="O10" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="Z10" s="42"/>
     </row>
     <row r="11" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="35"/>
-      <c r="O11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="42"/>
+      <c r="Y12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="Q11" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:47" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="35"/>
-      <c r="O12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="R12" s="15">
-        <v>2000</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="AA12" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="R13" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="S13" s="33"/>
-      <c r="T13" s="35" t="s">
-        <v>83</v>
+      <c r="E13" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="O13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>8</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="AA13" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T14" s="35"/>
-      <c r="AA14" s="35" t="s">
-        <v>83</v>
+      <c r="O14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" s="15">
+        <v>2000</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA14" s="42" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="27"/>
       <c r="M15" s="2"/>
-      <c r="Q15" s="23"/>
-      <c r="AA15" s="35"/>
+      <c r="R15" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="41"/>
+      <c r="T15" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA15" s="42"/>
       <c r="AO15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="U16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="T16" s="42"/>
       <c r="AO16" s="10" t="s">
         <v>34</v>
       </c>
@@ -1472,41 +1472,17 @@
       <c r="AQ16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AS16" s="36" t="s">
+      <c r="AS16" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AT16" s="36"/>
+      <c r="AT16" s="46"/>
       <c r="AU16" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="3:46" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q17" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="R17" s="15">
-        <v>1000</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T17" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="U17" s="25">
-        <v>522354258</v>
-      </c>
-      <c r="V17" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>29</v>
+      <c r="O17" s="35" t="s">
+        <v>101</v>
       </c>
       <c r="Y17" s="9" t="s">
         <v>26</v>
@@ -1525,11 +1501,6 @@
       </c>
     </row>
     <row r="18" spans="3:46" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T18" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="U18" s="37"/>
-      <c r="V18" s="38"/>
       <c r="AO18" s="5" t="s">
         <v>33</v>
       </c>
@@ -1545,43 +1516,16 @@
     </row>
     <row r="19" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q20" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="R20" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="V20" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB20" s="5" t="s">
         <v>54</v>
       </c>
@@ -1591,43 +1535,16 @@
       <c r="AD20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AO20" s="36" t="s">
+      <c r="AO20" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AP20" s="36"/>
-      <c r="AS20" s="32" t="s">
+      <c r="AP20" s="46"/>
+      <c r="AS20" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AT20" s="32"/>
+      <c r="AT20" s="38"/>
     </row>
     <row r="21" spans="3:46" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q21" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="U21" s="25">
-        <v>522354258</v>
-      </c>
-      <c r="V21" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="AD21" s="12" t="s">
         <v>56</v>
       </c>
@@ -1636,13 +1553,13 @@
       </c>
     </row>
     <row r="22" spans="3:46" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="28"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -1665,10 +1582,10 @@
       <c r="E24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AO24" s="36" t="s">
+      <c r="AO24" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AP24" s="36"/>
+      <c r="AP24" s="46"/>
     </row>
     <row r="25" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AO25" s="9" t="s">
@@ -1769,23 +1686,23 @@
       <c r="Q39" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R39" s="39" t="s">
+      <c r="R39" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
       <c r="X39" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q41" s="32" t="s">
+      <c r="Q41" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
     </row>
     <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q45" s="1" t="s">
@@ -1827,6 +1744,133 @@
       </c>
       <c r="N47" s="29" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q59" s="23"/>
+    </row>
+    <row r="60" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q60" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T60" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="V60" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q61" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="R61" s="15">
+        <v>1000</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T61" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="U61" s="25">
+        <v>522354258</v>
+      </c>
+      <c r="V61" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T62" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="U62" s="48"/>
+      <c r="V62" s="49"/>
+    </row>
+    <row r="63" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="R64" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T64" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="U64" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="V64" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="W64" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O65" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q65" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T65" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="U65" s="25">
+        <v>522354258</v>
+      </c>
+      <c r="V65" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1836,15 +1880,15 @@
     <mergeCell ref="AS20:AT20"/>
     <mergeCell ref="AO24:AP24"/>
     <mergeCell ref="R39:U39"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="R15:S15"/>
     <mergeCell ref="AO20:AP20"/>
     <mergeCell ref="E10:E12"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="T15:T16"/>
     <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T62:V62"/>
     <mergeCell ref="O4:P5"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C8:D8"/>

--- a/Entity idea 2.xlsx
+++ b/Entity idea 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinh\Documents\Projects\money-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764D828-786C-47A7-B2F9-B984F470B9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B733FF5-281F-4C2D-A4AE-BB3E7F3292FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC3F191F-33F2-45E3-9500-2146EE3343A9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
   <si>
     <t>Giao dịch (Transaction)</t>
   </si>
@@ -54,30 +54,18 @@
     <t>06-12-2022</t>
   </si>
   <si>
-    <t>Miêu tả (Description)</t>
-  </si>
-  <si>
     <t>VND</t>
   </si>
   <si>
-    <t>0124 7659 4653 1897</t>
-  </si>
-  <si>
     <t>Tên đầy đủ (Full name)</t>
   </si>
   <si>
-    <t>Tiền tệ (Currency)</t>
-  </si>
-  <si>
     <t>Transaction</t>
   </si>
   <si>
     <t>Hình ảnh (Images)</t>
   </si>
   <si>
-    <t>Transaction details</t>
-  </si>
-  <si>
     <t>Start date</t>
   </si>
   <si>
@@ -93,9 +81,6 @@
     <t>Actual amount spent</t>
   </si>
   <si>
-    <t>Remark</t>
-  </si>
-  <si>
     <t>VNĐ</t>
   </si>
   <si>
@@ -105,18 +90,9 @@
     <t>Nợ (Loan)</t>
   </si>
   <si>
-    <t>Lê Bảo Nam</t>
-  </si>
-  <si>
     <t>Bản Việt</t>
   </si>
   <si>
-    <t>(contact)</t>
-  </si>
-  <si>
-    <t>Thúy Linh</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -144,25 +120,7 @@
     <t>Tiêu đề (Title)</t>
   </si>
   <si>
-    <t>Số tài khoản (Account number)</t>
-  </si>
-  <si>
-    <t>Tên ngân hàng (Bank name)</t>
-  </si>
-  <si>
-    <t>Phương thức (Transaction method)</t>
-  </si>
-  <si>
-    <t>Số tiền (Amount)</t>
-  </si>
-  <si>
     <t>(Phần dấu trừ hay dấu cộng kèm màu sắc sẽ được thể hiện qua UI)</t>
-  </si>
-  <si>
-    <t>Thông qua (From)</t>
-  </si>
-  <si>
-    <t>Đến (To)</t>
   </si>
   <si>
     <r>
@@ -191,27 +149,15 @@
     </r>
   </si>
   <si>
-    <t>(lưu cứng từ contact hoặc nhập tay)</t>
-  </si>
-  <si>
-    <t>Anh Thư</t>
-  </si>
-  <si>
     <t>Idea</t>
   </si>
   <si>
     <t>trả góp</t>
   </si>
   <si>
-    <t>Chuyển khoản gián tiếp</t>
-  </si>
-  <si>
     <t>Giữa các giao dịch có mối liên kết</t>
   </si>
   <si>
-    <t>Đã nhận? (Has received?)</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -227,9 +173,6 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>Tiền mặt (Cash payment)</t>
-  </si>
-  <si>
     <t>(tham chiếu đến contact)</t>
   </si>
   <si>
@@ -245,9 +188,6 @@
     <t>(Tổng của chi tiết giao dịch)</t>
   </si>
   <si>
-    <t>Chi tiết giao dịch (Transaction details)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -290,33 +230,16 @@
     <t>Jessica</t>
   </si>
   <si>
-    <t>Tên ví điện tử (E-wallet name)</t>
-  </si>
-  <si>
     <t>Delilah</t>
   </si>
   <si>
     <t>Merrill</t>
   </si>
   <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>ZaloPay</t>
-  </si>
-  <si>
     <t>Bạn của contact trong 1 giao dịch (Friends of contact in a transaction detail - TransactionDetailContactFriends)</t>
   </si>
   <si>
     <t>(Lưu cứng từ contact hoặc nhập tay)</t>
-  </si>
-  <si>
-    <t>Chi tiết giao dịch Id
-(Transaction detail Id)</t>
-  </si>
-  <si>
-    <t>Phương thức
-(Transaction method)</t>
   </si>
   <si>
     <t>Ngày
@@ -371,20 +294,6 @@
 (Transactions)</t>
   </si>
   <si>
-    <t>Chuyển khoản ví điện tử
-(E-wallet transfer)</t>
-  </si>
-  <si>
-    <t>Chuyển khoản ngân hàng gián tiếp
-(Indirect bank transfer)</t>
-  </si>
-  <si>
-    <t>(Chuyển khoản ngân hàng (Bank transfer))</t>
-  </si>
-  <si>
-    <t>Chuyển tiền mặt (Cash transfer)</t>
-  </si>
-  <si>
     <t>Số tiền
 (Amount)</t>
   </si>
@@ -393,9 +302,6 @@
 (Full name)</t>
   </si>
   <si>
-    <t>SCB</t>
-  </si>
-  <si>
     <t>Số tài khoản
 (Account number)</t>
   </si>
@@ -411,6 +317,69 @@
   </si>
   <si>
     <t>CT1</t>
+  </si>
+  <si>
+    <t>Thanh toán điện tử - Chuyển khoản ngân hàng (Electronic payment - Bank transfer))</t>
+  </si>
+  <si>
+    <t>Tên ví điện tử
+(Wallet name)</t>
+  </si>
+  <si>
+    <t>Giao dịch ngân hàng Id
+(Bank transaction Id)</t>
+  </si>
+  <si>
+    <t>Chi tiết giao dịch
+(Transaction details)</t>
+  </si>
+  <si>
+    <t>EWT1</t>
+  </si>
+  <si>
+    <t>IDBT1</t>
+  </si>
+  <si>
+    <t>Thanh toán điện tử - Chuyển khoản ví điện tử (Electronic payment - E-wallet transfer))</t>
+  </si>
+  <si>
+    <t>Giao dịch e-wallet Id
+(E-wallet transaction Id)</t>
+  </si>
+  <si>
+    <t>EWT2</t>
+  </si>
+  <si>
+    <t>Đã nhận?
+(Has received?)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Thanh toán điện tử gián tiếp - Chuyển khoản ngân hàng (Indirect electronic payment - bank transfer))</t>
+  </si>
+  <si>
+    <t>Thanh toán điện tử gián tiếp - Chuyển khoản ví điện tử (Indirect electronic payment - E-wallet transfer))</t>
+  </si>
+  <si>
+    <t>Giao dịch tiền mặt Id
+(Cash transaction Id)</t>
+  </si>
+  <si>
+    <t>CT2</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>IDEWT1</t>
+  </si>
+  <si>
+    <t>Thanh toán điện tử gián tiếp - Tiền mặt (Indirect electronic payment - Cash transfer))</t>
+  </si>
+  <si>
+    <t>Thanh toán truyền thống - Tiền mặt (Traditional payment - Cast transfer))</t>
   </si>
 </sst>
 </file>
@@ -521,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -603,11 +572,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -627,9 +620,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -647,9 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -668,9 +655,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -704,21 +688,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -726,9 +743,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -739,21 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,36 +1075,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78541E-D712-4294-A998-0284267A00F9}">
-  <dimension ref="A1:AU65"/>
+  <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="26" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="23" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="29" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="17" width="33.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="22.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="30.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="30" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="26" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" style="1" customWidth="1"/>
     <col min="23" max="23" width="22.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="26" style="1" customWidth="1"/>
     <col min="25" max="26" width="39.28515625" style="1"/>
@@ -1114,463 +1113,566 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>26</v>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="46"/>
+    </row>
+    <row r="5" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Y5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+    </row>
+    <row r="6" spans="2:47" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="M4" s="2"/>
-      <c r="O4" s="37" t="s">
+      <c r="C6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="37"/>
-    </row>
-    <row r="5" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Y5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-    </row>
-    <row r="6" spans="2:47" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="E6" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>90</v>
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>90</v>
+        <v>42</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>69</v>
+        <v>33</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" s="15">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="13">
         <v>3000</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7" s="25">
+        <v>5</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="22">
         <v>22589265</v>
       </c>
-      <c r="U7" s="25" t="s">
-        <v>23</v>
+      <c r="U7" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="X7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="Y7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="39" t="s">
+    </row>
+    <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="49"/>
+      <c r="Q9" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="39"/>
+      <c r="S9" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>3000</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8" s="25">
-        <v>65465465</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z8" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="42"/>
-      <c r="Q9" s="41" t="s">
+      <c r="T9" s="41"/>
+      <c r="U9" s="45"/>
+      <c r="Z9" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="T9" s="48"/>
-      <c r="U9" s="49"/>
-      <c r="Z9" s="42" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="Z10" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="23"/>
     </row>
     <row r="11" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="42"/>
-    </row>
-    <row r="12" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="42"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="2:47" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="44"/>
+      <c r="O12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Y12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA12" s="24" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="Z12" s="21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="O13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13" s="24" t="s">
-        <v>8</v>
+      <c r="E13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="O13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>3000</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="22">
+        <v>22589265</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA13" s="25" t="s">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="Z13" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O14" s="5" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="R14" s="15">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z14" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="24"/>
+      <c r="M15" s="2"/>
+      <c r="O15" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="AA15" s="33"/>
+      <c r="AO15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:46" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="13">
         <v>2000</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="R18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA14" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="27"/>
-      <c r="M15" s="2"/>
-      <c r="R15" s="41" t="s">
+    </row>
+    <row r="20" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="41"/>
+      <c r="S20" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="S15" s="41"/>
-      <c r="T15" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA15" s="42"/>
-      <c r="AO15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T16" s="42"/>
-      <c r="AO16" s="10" t="s">
+      <c r="AB20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS16" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT16" s="46"/>
-      <c r="AU16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="3:46" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O17" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT17" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="3:46" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AO18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AD20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO20" s="34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO20" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP20" s="46"/>
-      <c r="AS20" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT20" s="38"/>
-    </row>
-    <row r="21" spans="3:46" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AD21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO21" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="3:46" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="AP20" s="34"/>
+      <c r="AS20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT20" s="35"/>
+    </row>
+    <row r="21" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S21" s="37"/>
+      <c r="AD21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO21" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="S22" s="38"/>
     </row>
     <row r="23" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
     </row>
     <row r="24" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
@@ -1582,154 +1684,181 @@
       <c r="E24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AO24" s="46" t="s">
+      <c r="AO24" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP24" s="34"/>
+    </row>
+    <row r="25" spans="3:46" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO25" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="37"/>
+    </row>
+    <row r="29" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q29" s="38"/>
+    </row>
+    <row r="30" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+    </row>
+    <row r="31" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="3:46" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q32" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="37"/>
+    </row>
+    <row r="36" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q36" s="38"/>
+    </row>
+    <row r="37" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+    </row>
+    <row r="38" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R39" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q42" s="37"/>
+    </row>
+    <row r="43" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q43" s="38"/>
+    </row>
+    <row r="44" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+    </row>
+    <row r="46" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AP24" s="46"/>
-    </row>
-    <row r="25" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AO25" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="3:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S26" s="22"/>
-    </row>
-    <row r="32" spans="3:46" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q34" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="R34" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="S34" s="15">
-        <v>3000</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q35" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V38" s="15">
-        <v>4000</v>
-      </c>
-      <c r="W38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q39" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R39" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="X39" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q41" s="38" t="s">
+      <c r="F46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-    </row>
-    <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q45" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N46" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>44807</v>
       </c>
@@ -1737,158 +1866,17 @@
         <v>5000</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q59" s="23"/>
-    </row>
-    <row r="60" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q60" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T60" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="V60" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O61" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q61" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="R61" s="15">
-        <v>1000</v>
-      </c>
-      <c r="S61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T61" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="U61" s="25">
-        <v>522354258</v>
-      </c>
-      <c r="V61" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="W61" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T62" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="U62" s="48"/>
-      <c r="V62" s="49"/>
-    </row>
-    <row r="63" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O64" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q64" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="R64" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T64" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="U64" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="V64" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="W64" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="15:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O65" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P65" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q65" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R65" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T65" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="U65" s="25">
-        <v>522354258</v>
-      </c>
-      <c r="V65" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="W65" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="17:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q61" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="AS16:AT16"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="AO24:AP24"/>
-    <mergeCell ref="R39:U39"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="AO20:AP20"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="T62:V62"/>
+  <mergeCells count="19">
     <mergeCell ref="O4:P5"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C8:D8"/>
@@ -1896,6 +1884,18 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="I4:J5"/>
     <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="AS16:AT16"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="AO20:AP20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1913,24 +1913,24 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
